--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1457937.207380194</v>
+        <v>1455685.127668986</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>28.90798465780365</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>9.099573361141621</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>173.6963954844966</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>114.2656173771025</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814396</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145766</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177.5202205379162</v>
+        <v>111.1617332640475</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>301.2402584038925</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>240.3635537979627</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>82.70057996958639</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>159.2661870898847</v>
       </c>
       <c r="X13" t="n">
-        <v>193.996253843244</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>24.8326660635311</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892428</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>98.72106119200484</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>77.39507264402721</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890353</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182142</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>75.96788793061584</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>31.40247677522967</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856194</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>105.650786789961</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>113.6427030833168</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788183983</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428526</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>135.3738350208497</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>201.4105577836242</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796265</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C2" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,7 +4349,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
         <v>477.7578170212613</v>
@@ -4483,22 +4483,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.464090846021</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>874.001300694586</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>653.2087215510559</v>
       </c>
     </row>
     <row r="5">
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,19 +4595,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y5" t="n">
         <v>2731.767278738087</v>
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.6774975139006</v>
+        <v>629.780563451991</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592604</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X7" t="n">
-        <v>1101.990851592604</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y7" t="n">
-        <v>1101.990851592604</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4835,19 +4835,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3082.814353126381</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2751.75146578281</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1198.22892174168</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>802.9288273958753</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>633.9926444679684</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369645</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>984.577292226115</v>
       </c>
     </row>
     <row r="20">
@@ -5744,40 +5744,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>626.3497813227596</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,16 +6072,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2415.243410069927</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2232.388575724832</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2012.787110747773</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,64 +6212,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263523</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356159</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232801</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E28" t="n">
-        <v>631.701244340887</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429766</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578566</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000547</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2273.199413378157</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378157</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378157</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172271</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.09775513531</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237293</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093762</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459545</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180477</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478292</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038306</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797706</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817742</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919724</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761943</v>
       </c>
     </row>
     <row r="32">
@@ -6692,37 +6692,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400749</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C34" t="n">
-        <v>344.917417812168</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>344.917417812168</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>344.917417812168</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>344.917417812168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270479</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487571</v>
+        <v>2243.176132336855</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510512</v>
+        <v>2023.574667359796</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.38585385471</v>
+        <v>1734.499440703994</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648823</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611862</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138447</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703146</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7391,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892428</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>127.2568112467063</v>
       </c>
       <c r="X13" t="n">
-        <v>31.71340154579315</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>142.4141550350967</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>119.86359216009</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>71.22040037418515</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>70.46607471595333</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.97276993489202</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>75.37549921168362</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489558</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392193768</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219386</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>45.6524509807949</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>84.77391660561992</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920238.8039515036</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651772</v>
+      </c>
+      <c r="C2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.106165177</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651771</v>
-      </c>
       <c r="E2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="F2" t="n">
         <v>504466.6248062539</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="M2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062539</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972778</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818167</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1015711.479041991</v>
+        <v>-1015711.47904199</v>
       </c>
       <c r="C6" t="n">
-        <v>313033.2666856023</v>
+        <v>313033.2666856018</v>
       </c>
       <c r="D6" t="n">
-        <v>313033.2666856021</v>
+        <v>313033.2666856019</v>
       </c>
       <c r="E6" t="n">
-        <v>64934.76902816098</v>
+        <v>64900.03110272504</v>
       </c>
       <c r="F6" t="n">
-        <v>390347.2308355162</v>
+        <v>390312.4929100806</v>
       </c>
       <c r="G6" t="n">
-        <v>390347.2308355161</v>
+        <v>390312.4929100808</v>
       </c>
       <c r="H6" t="n">
-        <v>390347.2308355164</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="I6" t="n">
-        <v>390347.2308355161</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="J6" t="n">
-        <v>172816.0284382385</v>
+        <v>172781.2905128028</v>
       </c>
       <c r="K6" t="n">
-        <v>390347.2308355162</v>
+        <v>390312.4929100803</v>
       </c>
       <c r="L6" t="n">
-        <v>390347.2308355161</v>
+        <v>390312.4929100803</v>
       </c>
       <c r="M6" t="n">
-        <v>305292.2029000045</v>
+        <v>305257.4649745686</v>
       </c>
       <c r="N6" t="n">
-        <v>390347.2308355162</v>
+        <v>390312.4929100805</v>
       </c>
       <c r="O6" t="n">
-        <v>390347.2308355164</v>
+        <v>390312.4929100803</v>
       </c>
       <c r="P6" t="n">
-        <v>390347.2308355162</v>
+        <v>390312.4929100805</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26799,10 +26799,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>336.3649071132039</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>377.138365294912</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6.135584697440692</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2573809594885</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803251</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>111.443513141477</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.311759644021095</v>
+        <v>68.67024691788978</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>53.44278321679047</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>10.6316181609393</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-7.863403763104596e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-2.230967569652997e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305184</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32792,19 +32792,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963281</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963281</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,25 +34208,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998995</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326294959</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010493</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191345</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
